--- a/admin/template/template_buku_besar.xlsx
+++ b/admin/template/template_buku_besar.xlsx
@@ -29,7 +29,7 @@
     <t>PT. Mitra Data Abadi</t>
   </si>
   <si>
-    <t>Jurnal Umum</t>
+    <t>Buku Besar</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,5 +395,6 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>